--- a/book_list.xlsx
+++ b/book_list.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="177">
-  <si>
-    <t>Export Date and Time: 2024-05-29 13:12:19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="189">
+  <si>
+    <t>Export Date and Time: 2024-05-31 09:54:30</t>
   </si>
   <si>
     <t>ID</t>
@@ -122,42 +122,45 @@
     <t>Little, Brown and Company</t>
   </si>
   <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Sapiens: A Brief History of Humankind</t>
+  </si>
+  <si>
+    <t>9780062316097</t>
+  </si>
+  <si>
+    <t>Non-Fiction</t>
+  </si>
+  <si>
+    <t>Yuval Noah Harari</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Educated</t>
+  </si>
+  <si>
+    <t>9780399590504</t>
+  </si>
+  <si>
+    <t>Tara Westover</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Random House</t>
+  </si>
+  <si>
     <t>Reserved</t>
   </si>
   <si>
-    <t>Sapiens: A Brief History of Humankind</t>
-  </si>
-  <si>
-    <t>9780062316097</t>
-  </si>
-  <si>
-    <t>Non-Fiction</t>
-  </si>
-  <si>
-    <t>Yuval Noah Harari</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>Harper</t>
-  </si>
-  <si>
-    <t>Educated</t>
-  </si>
-  <si>
-    <t>9780399590504</t>
-  </si>
-  <si>
-    <t>Tara Westover</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>Random House</t>
-  </si>
-  <si>
     <t>The Immortal Life of Henrietta Lacks</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>Laura Hillenbrand</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>Introduction to Algorithms</t>
   </si>
   <si>
@@ -200,18 +206,6 @@
     <t>MIT Press</t>
   </si>
   <si>
-    <t>Artificial Intelligence: A Modern Approach</t>
-  </si>
-  <si>
-    <t>9780136042594</t>
-  </si>
-  <si>
-    <t>Stuart Russell</t>
-  </si>
-  <si>
-    <t>Pearson</t>
-  </si>
-  <si>
     <t>The Art of Computer Programming</t>
   </si>
   <si>
@@ -413,18 +407,6 @@
     <t>dfsadsad</t>
   </si>
   <si>
-    <t>cepllhone</t>
-  </si>
-  <si>
-    <t>3123131</t>
-  </si>
-  <si>
-    <t>exre</t>
-  </si>
-  <si>
-    <t>coco</t>
-  </si>
-  <si>
     <t>alpunga</t>
   </si>
   <si>
@@ -543,6 +525,60 @@
   </si>
   <si>
     <t>Zuward</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+  <si>
+    <t>987783123321</t>
+  </si>
+  <si>
+    <t>Andres Boni</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>Jose Rizal</t>
+  </si>
+  <si>
+    <t>dsadsa</t>
+  </si>
+  <si>
+    <t>321311123</t>
+  </si>
+  <si>
+    <t>aasdadsa</t>
+  </si>
+  <si>
+    <t>sdasdad</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>2313112312</t>
+  </si>
+  <si>
+    <t>adassd</t>
+  </si>
+  <si>
+    <t>asdsada</t>
+  </si>
+  <si>
+    <t>kikiam ni tekla</t>
+  </si>
+  <si>
+    <t>32131231</t>
+  </si>
+  <si>
+    <t>adas</t>
+  </si>
+  <si>
+    <t>3233</t>
+  </si>
+  <si>
+    <t>aaasd</t>
   </si>
 </sst>
 </file>
@@ -599,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -815,7 +851,7 @@
         <v>47</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -823,22 +859,22 @@
         <v>8.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>39</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>15</v>
@@ -849,25 +885,25 @@
         <v>10.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>39</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="0">
         <v>47</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -875,48 +911,48 @@
         <v>11.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s" s="0">
         <v>15</v>
@@ -924,25 +960,25 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>15</v>
@@ -950,103 +986,103 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="0">
         <v>15</v>
@@ -1054,233 +1090,233 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="0">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s" s="0">
         <v>36</v>
@@ -1288,51 +1324,51 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="0">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s" s="0">
         <v>15</v>
@@ -1340,51 +1376,51 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="0">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>39</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="0">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H33" t="s" s="0">
         <v>15</v>
@@ -1392,25 +1428,25 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="H34" t="s" s="0">
         <v>36</v>
@@ -1418,132 +1454,184 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="0">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="0">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="0">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="0">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="E39" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="H39" t="s" s="0">
-        <v>36</v>
+      <c r="E41" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
